--- a/MODULE2/APPLIED OF STATISTIC ASSESSMENT.xlsx
+++ b/MODULE2/APPLIED OF STATISTIC ASSESSMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6acc8c28469c91c/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{0B0AB64C-CB1F-4BFB-9432-5B1639F2E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9256E1B5-4398-453C-8E35-FC1E23B4124F}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{0B0AB64C-CB1F-4BFB-9432-5B1639F2E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3212628-78D5-458C-8E3F-513F5A7422AD}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{3F9BD900-D56C-46DB-B057-1BF81C1E6E76}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Question 1 - Calculate Population Variance in Excel</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>2008 Figures</t>
-  </si>
-  <si>
-    <t>variance</t>
-  </si>
-  <si>
     <t>Question 2 - Calculate Sample Variance in Excel</t>
   </si>
   <si>
@@ -154,13 +148,10 @@
     <t>G3.8</t>
   </si>
   <si>
-    <t>SAMPLE VARIANCE</t>
-  </si>
-  <si>
-    <t>ANSWER 2</t>
-  </si>
-  <si>
-    <t>ANSWER 1</t>
+    <t xml:space="preserve">variance </t>
+  </si>
+  <si>
+    <t>variance of sample</t>
   </si>
 </sst>
 </file>
@@ -168,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -252,13 +243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,55 +278,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -354,6 +332,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,393 +635,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F20178-E684-4B69-BAD3-23CE68FD669D}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="8" max="8" width="19.53515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="I1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>39083</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>39448</v>
+      </c>
+      <c r="E5" s="4">
+        <v>17500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>39814</v>
+      </c>
+      <c r="G5" s="4">
+        <v>13000</v>
+      </c>
+      <c r="H5" s="13">
+        <f>_xlfn.VAR.P(C5:C16,E5:E16,G5:G16)</f>
+        <v>11003858.024691358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>39114</v>
+      </c>
+      <c r="C6" s="4">
+        <v>14500</v>
+      </c>
+      <c r="D6" s="3">
+        <v>39479</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="3">
+        <v>39845</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>39142</v>
+      </c>
+      <c r="C7" s="4">
+        <v>14500</v>
+      </c>
+      <c r="D7" s="3">
+        <v>39508</v>
+      </c>
+      <c r="E7" s="4">
+        <v>16000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>39873</v>
+      </c>
+      <c r="G7" s="4">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>39173</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>39539</v>
+      </c>
+      <c r="E8" s="4">
+        <v>19000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>39904</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="I3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10">
-        <f>_xlfn.VAR.P(C5:C16)</f>
-        <v>5713541.666666667</v>
-      </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="10">
-        <f>_xlfn.VAR.P(E5:E16)</f>
-        <v>21137430.555555556</v>
-      </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>39083</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B9" s="3">
+        <v>39203</v>
+      </c>
+      <c r="C9" s="4">
+        <v>16000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>39569</v>
+      </c>
+      <c r="E9" s="4">
+        <v>17000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>39934</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>39234</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9500</v>
+      </c>
+      <c r="D10" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>39965</v>
+      </c>
+      <c r="G10" s="4">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>39264</v>
+      </c>
+      <c r="C11" s="4">
+        <v>13500</v>
+      </c>
+      <c r="D11" s="3">
+        <v>39630</v>
+      </c>
+      <c r="E11" s="4">
+        <v>11000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>39995</v>
+      </c>
+      <c r="G11" s="4">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>39295</v>
+      </c>
+      <c r="C12" s="4">
+        <v>17000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>39661</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>40026</v>
+      </c>
+      <c r="G12" s="4">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>39326</v>
+      </c>
+      <c r="C13" s="4">
+        <v>11000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>39692</v>
+      </c>
+      <c r="E13" s="4">
+        <v>13000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>40057</v>
+      </c>
+      <c r="G13" s="4">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>39356</v>
+      </c>
+      <c r="C14" s="4">
         <v>15000</v>
       </c>
-      <c r="D5" s="6">
-        <v>39448</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D14" s="3">
+        <v>39722</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>40087</v>
+      </c>
+      <c r="G14" s="4">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>39387</v>
+      </c>
+      <c r="C15" s="4">
         <v>17500</v>
       </c>
-      <c r="F5" s="6">
-        <v>39814</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="D15" s="3">
+        <v>39753</v>
+      </c>
+      <c r="E15" s="4">
+        <v>15000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>40118</v>
+      </c>
+      <c r="G15" s="4">
         <v>13000</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="10">
-        <f>_xlfn.VAR.P(G5:G16)</f>
-        <v>5326388.888888889</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>39114</v>
-      </c>
-      <c r="C6" s="7">
-        <v>14500</v>
-      </c>
-      <c r="D6" s="6">
-        <v>39479</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="6">
-        <v>39845</v>
-      </c>
-      <c r="G6" s="7">
-        <v>15000</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>39142</v>
-      </c>
-      <c r="C7" s="7">
-        <v>14500</v>
-      </c>
-      <c r="D7" s="6">
-        <v>39508</v>
-      </c>
-      <c r="E7" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>39873</v>
-      </c>
-      <c r="G7" s="7">
-        <v>14000</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>39173</v>
-      </c>
-      <c r="C8" s="7">
-        <v>14000</v>
-      </c>
-      <c r="D8" s="6">
-        <v>39539</v>
-      </c>
-      <c r="E8" s="7">
-        <v>19000</v>
-      </c>
-      <c r="F8" s="6">
-        <v>39904</v>
-      </c>
-      <c r="G8" s="7">
-        <v>16500</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>39203</v>
-      </c>
-      <c r="C9" s="7">
-        <v>16000</v>
-      </c>
-      <c r="D9" s="6">
-        <v>39569</v>
-      </c>
-      <c r="E9" s="7">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>39417</v>
+      </c>
+      <c r="C16" s="4">
+        <v>18000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>39783</v>
+      </c>
+      <c r="E16" s="4">
+        <v>17500</v>
+      </c>
+      <c r="F16" s="3">
+        <v>40148</v>
+      </c>
+      <c r="G16" s="4">
         <v>17000</v>
       </c>
-      <c r="F9" s="6">
-        <v>39934</v>
-      </c>
-      <c r="G9" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>39234</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9500</v>
-      </c>
-      <c r="D10" s="6">
-        <v>39600</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10500</v>
-      </c>
-      <c r="F10" s="6">
-        <v>39965</v>
-      </c>
-      <c r="G10" s="7">
-        <v>12500</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>39264</v>
-      </c>
-      <c r="C11" s="7">
-        <v>13500</v>
-      </c>
-      <c r="D11" s="6">
-        <v>39630</v>
-      </c>
-      <c r="E11" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>39995</v>
-      </c>
-      <c r="G11" s="7">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>39295</v>
-      </c>
-      <c r="C12" s="7">
-        <v>17000</v>
-      </c>
-      <c r="D12" s="6">
-        <v>39661</v>
-      </c>
-      <c r="E12" s="7">
-        <v>12500</v>
-      </c>
-      <c r="F12" s="6">
-        <v>40026</v>
-      </c>
-      <c r="G12" s="7">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>39326</v>
-      </c>
-      <c r="C13" s="7">
-        <v>11000</v>
-      </c>
-      <c r="D13" s="6">
-        <v>39692</v>
-      </c>
-      <c r="E13" s="7">
-        <v>13000</v>
-      </c>
-      <c r="F13" s="6">
-        <v>40057</v>
-      </c>
-      <c r="G13" s="7">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>39356</v>
-      </c>
-      <c r="C14" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D14" s="6">
-        <v>39722</v>
-      </c>
-      <c r="E14" s="7">
-        <v>15500</v>
-      </c>
-      <c r="F14" s="6">
-        <v>40087</v>
-      </c>
-      <c r="G14" s="7">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>39387</v>
-      </c>
-      <c r="C15" s="7">
-        <v>17500</v>
-      </c>
-      <c r="D15" s="6">
-        <v>39753</v>
-      </c>
-      <c r="E15" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F15" s="6">
-        <v>40118</v>
-      </c>
-      <c r="G15" s="7">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6">
-        <v>39417</v>
-      </c>
-      <c r="C16" s="7">
-        <v>18000</v>
-      </c>
-      <c r="D16" s="6">
-        <v>39783</v>
-      </c>
-      <c r="E16" s="7">
-        <v>17500</v>
-      </c>
-      <c r="F16" s="6">
-        <v>40148</v>
-      </c>
-      <c r="G16" s="7">
-        <v>17000</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1047,255 +987,226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1A4675-5400-423D-8857-AC970B01FFFE}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="I4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B6" s="8">
+        <v>176</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="17">
-        <f>_xlfn.VAR.S(B6:B13)</f>
-        <v>9.8095238095238084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
+      <c r="D6" s="8">
+        <v>179</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19">
+      <c r="F6" s="8">
+        <v>179</v>
+      </c>
+      <c r="G6" s="6">
+        <f>_xlfn.VAR.S(B6:B13,D6:D13,F6:F13)</f>
+        <v>9.2619047619047628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>174</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
+        <v>173</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>181</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8">
+        <v>184</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8">
         <v>176</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="19">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>178</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8">
+        <v>175</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8">
+        <v>183</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8">
+        <v>172</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8">
+        <v>176</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8">
+        <v>176</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8">
         <v>179</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="21">
-        <v>179</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="17">
-        <f>_xlfn.VAR.S(D6:D13)</f>
-        <v>16.285714285714281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="19">
-        <v>174</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="19">
-        <v>173</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="21">
-        <v>178</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="17">
-        <f>_xlfn.VAR.S(F6:F13)</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="19">
-        <v>181</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="19">
-        <v>184</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="21">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8">
+        <v>177</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8">
+        <v>177</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="8">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="19">
-        <v>178</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="19">
-        <v>175</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="21">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="19">
-        <v>183</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="19">
-        <v>172</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="21">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="19">
-        <v>176</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="19">
-        <v>176</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="21">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="19">
-        <v>177</v>
-      </c>
-      <c r="C12" s="18" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19">
-        <v>177</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="21">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
+      <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>36</v>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
